--- a/混床电导率数据集.xlsx
+++ b/混床电导率数据集.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bchangedong\PycharmProjects\GraduationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\离子交换树脂项目\大装置\混床实验结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEBD05B-9DCD-424A-BF31-A7C11CF6D2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0258D8-64BA-4A51-8825-1A65136110D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="770" yWindow="2380" windowWidth="25530" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="4020" windowWidth="25530" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,447 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -338,11 +778,51 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -625,8 +1105,8 @@
   <dimension ref="A1:N437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G169" sqref="G169"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -683,7 +1163,7 @@
         <v>0.154</v>
       </c>
       <c r="G2" s="5">
-        <v>9.9500014066696008E-2</v>
+        <v>0.14766699838638295</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -706,7 +1186,7 @@
         <v>9.9500014066696008E-2</v>
       </c>
       <c r="G3" s="5">
-        <v>9.5999999523163015E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -729,7 +1209,7 @@
         <v>9.5999999523163015E-2</v>
       </c>
       <c r="G4" s="5">
-        <v>9.1499997854233017E-2</v>
+        <v>0.13083301353454602</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -752,7 +1232,7 @@
         <v>9.1499997854233017E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>9.1499997854233017E-2</v>
+        <v>0.12350000309944198</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -775,7 +1255,7 @@
         <v>9.1499997854233017E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>9.1499997854233017E-2</v>
+        <v>0.11666698622703603</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -798,7 +1278,7 @@
         <v>9.1499997854233017E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>9.1499997854233017E-2</v>
+        <v>0.11900000143051098</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -821,7 +1301,7 @@
         <v>9.1499997854233017E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>7.0667000293732005E-2</v>
+        <v>0.11249999570846603</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -844,7 +1324,7 @@
         <v>7.0667000293732005E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>0.06</v>
+        <v>0.11433298754692101</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -867,7 +1347,7 @@
         <v>0.06</v>
       </c>
       <c r="G10" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12699998784065203</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -890,7 +1370,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G11" s="5">
-        <v>0.11</v>
+        <v>0.13083301353454602</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -913,7 +1393,7 @@
         <v>0.11</v>
       </c>
       <c r="G12" s="5">
-        <v>9.6667023181915002E-2</v>
+        <v>0.12350000309944198</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -936,7 +1416,7 @@
         <v>9.6667023181915002E-2</v>
       </c>
       <c r="G13" s="5">
-        <v>9.1667027950287E-2</v>
+        <v>0.11666698622703603</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -959,7 +1439,7 @@
         <v>9.1667027950287E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>0.10633298921585101</v>
+        <v>0.11900000143051098</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -982,7 +1462,7 @@
         <v>0.10633298921585101</v>
       </c>
       <c r="G15" s="5">
-        <v>8.5167022228241004E-2</v>
+        <v>0.11249999570846603</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1005,7 +1485,7 @@
         <v>8.5167022228241004E-2</v>
       </c>
       <c r="G16" s="5">
-        <v>0.101333005905151</v>
+        <v>0.11433298754692101</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1028,7 +1508,7 @@
         <v>0.101333005905151</v>
       </c>
       <c r="G17" s="5">
-        <v>0.103564</v>
+        <v>0.13083301353454602</v>
       </c>
       <c r="N17" s="4"/>
     </row>
@@ -1052,7 +1532,7 @@
         <v>0.16539999999999999</v>
       </c>
       <c r="G18" s="5">
-        <v>0.103366</v>
+        <v>0.12350000309944198</v>
       </c>
       <c r="N18" s="4"/>
     </row>
@@ -1076,7 +1556,7 @@
         <v>0.101333005905151</v>
       </c>
       <c r="G19" s="5">
-        <v>0.103366</v>
+        <v>0.11666698622703603</v>
       </c>
       <c r="N19" s="4"/>
     </row>
@@ -1100,7 +1580,7 @@
         <v>0.101333005905151</v>
       </c>
       <c r="G20" s="5">
-        <v>0.103366</v>
+        <v>0.11900000143051098</v>
       </c>
       <c r="N20" s="4"/>
     </row>
@@ -1124,7 +1604,7 @@
         <v>0.101333005905151</v>
       </c>
       <c r="G21" s="5">
-        <v>8.6594000000000004E-2</v>
+        <v>0.11249999570846603</v>
       </c>
       <c r="N21" s="4"/>
     </row>
@@ -1148,7 +1628,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G22" s="5">
-        <v>9.6584199999999995E-2</v>
+        <v>0.11433298754692101</v>
       </c>
       <c r="N22" s="4"/>
     </row>
@@ -1172,7 +1652,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G23" s="5">
-        <v>9.6457100000000004E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N23" s="4"/>
     </row>
@@ -1196,7 +1676,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G24" s="5">
-        <v>8.5421849999999994E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N24" s="4"/>
     </row>
@@ -1220,7 +1700,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G25" s="5">
-        <v>0.102654</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N25" s="4"/>
     </row>
@@ -1244,7 +1724,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G26" s="5">
-        <v>0.10500000286102301</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N26" s="4"/>
     </row>
@@ -1268,7 +1748,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G27" s="5">
-        <v>0.10183299946785002</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1291,7 +1771,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G28" s="5">
-        <v>6.8333013534546017E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1314,7 +1794,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G29" s="5">
-        <v>6.8333013534546017E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1337,7 +1817,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G30" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -1360,7 +1840,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G31" s="5">
-        <v>8.1667025566101004E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -1383,7 +1863,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G32" s="5">
-        <v>0.10983298587799099</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1406,7 +1886,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G33" s="5">
-        <v>0.102332981109619</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1429,7 +1909,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G34" s="5">
-        <v>6.1666973114014006E-2</v>
+        <v>0.12583298254013095</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,7 +1932,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G35" s="5">
-        <v>7.4333019733428957E-2</v>
+        <v>0.14766699838638295</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1475,7 +1955,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G36" s="5">
-        <v>6.8332977771759035E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1498,7 +1978,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G37" s="5">
-        <v>6.7667015075684039E-2</v>
+        <v>0.13083301353454602</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1521,7 +2001,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G38" s="5">
-        <v>9.3832977294921988E-2</v>
+        <v>0.12350000309944198</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1544,7 +2024,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G39" s="5">
-        <v>8.1833012580872028E-2</v>
+        <v>0.11666698622703603</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1567,7 +2047,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G40" s="5">
-        <v>9.8500020980834962E-2</v>
+        <v>0.11900000143051098</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1590,7 +2070,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G41" s="5">
-        <v>0.12583298254013095</v>
+        <v>0.11249999570846603</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1613,7 +2093,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G42" s="5">
-        <v>0.14766699838638295</v>
+        <v>0.11433298754692101</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1636,7 +2116,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G43" s="5">
-        <v>0.15</v>
+        <v>0.12699998784065203</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1696,7 +2176,7 @@
         <v>10.16</v>
       </c>
       <c r="D46" s="4">
-        <v>5.4499998092651403</v>
+        <v>1.21</v>
       </c>
       <c r="E46" s="5">
         <v>0.17</v>
@@ -1719,7 +2199,7 @@
         <v>8.06</v>
       </c>
       <c r="D47" s="4">
-        <v>5.7958331108093297</v>
+        <v>0.91500002145767201</v>
       </c>
       <c r="E47" s="5">
         <v>0.207917004823685</v>
@@ -1742,7 +2222,7 @@
         <v>12.39</v>
       </c>
       <c r="D48" s="4">
-        <v>5.1041669845581099</v>
+        <v>0.94291698932647705</v>
       </c>
       <c r="E48" s="5">
         <v>0.21708300709724401</v>
@@ -1765,7 +2245,7 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="D49" s="4">
-        <v>8.0541667938232404</v>
+        <v>0.99958300590515103</v>
       </c>
       <c r="E49" s="5">
         <v>0.28916698694229098</v>
@@ -1788,7 +2268,7 @@
         <v>9.1300000000000008</v>
       </c>
       <c r="D50" s="4">
-        <v>6.9208331108093297</v>
+        <v>1.1058330535888701</v>
       </c>
       <c r="E50" s="5">
         <v>0.40208300948143</v>
@@ -1811,7 +2291,7 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="D51" s="4">
-        <v>6.9583330154418901</v>
+        <v>1.25041699409485</v>
       </c>
       <c r="E51" s="5">
         <v>0.577916979789734</v>
@@ -1834,7 +2314,7 @@
         <v>8.76</v>
       </c>
       <c r="D52" s="4">
-        <v>7.7375001907348597</v>
+        <v>1.2787499427795399</v>
       </c>
       <c r="E52" s="5">
         <v>0.80958300828933705</v>
@@ -1857,7 +2337,7 @@
         <v>8.52</v>
       </c>
       <c r="D53" s="4">
-        <v>7.6750001907348597</v>
+        <v>1.4666670560836801</v>
       </c>
       <c r="E53" s="5">
         <v>0.86545000000000005</v>
@@ -1880,7 +2360,7 @@
         <v>8.58</v>
       </c>
       <c r="D54" s="4">
-        <v>7.5833330154418901</v>
+        <v>0.94291698932647705</v>
       </c>
       <c r="E54" s="5">
         <v>0.207917004823685</v>
@@ -1889,7 +2369,7 @@
         <v>0.16533301639556897</v>
       </c>
       <c r="G54" s="5">
-        <v>0.34100000429153399</v>
+        <v>0.12583298254013095</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1903,7 +2383,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="D55" s="4">
-        <v>7.9583330154418901</v>
+        <v>0.99958300590515103</v>
       </c>
       <c r="E55" s="5">
         <v>0.21708300709724401</v>
@@ -1912,7 +2392,7 @@
         <v>0.16250000762939498</v>
       </c>
       <c r="G55" s="5">
-        <v>0.32983301448822</v>
+        <v>0.14766699838638295</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1926,7 +2406,7 @@
         <v>9.07</v>
       </c>
       <c r="D56" s="4">
-        <v>7.8625001907348597</v>
+        <v>1.1058330535888701</v>
       </c>
       <c r="E56" s="5">
         <v>0.28916698694229098</v>
@@ -1935,7 +2415,7 @@
         <v>0.14600001144409203</v>
       </c>
       <c r="G56" s="5">
-        <v>9.4333006620407001E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1949,7 +2429,7 @@
         <v>9.07</v>
       </c>
       <c r="D57" s="4">
-        <v>8.4291667938232404</v>
+        <v>1.25041699409485</v>
       </c>
       <c r="E57" s="5">
         <v>0.40208300948143</v>
@@ -1958,7 +2438,7 @@
         <v>0.146499975204468</v>
       </c>
       <c r="G57" s="5">
-        <v>0.11266700792312601</v>
+        <v>0.13083301353454602</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1972,7 +2452,7 @@
         <v>9.31</v>
       </c>
       <c r="D58" s="4">
-        <v>8.7416667938232404</v>
+        <v>1.2787499427795399</v>
       </c>
       <c r="E58" s="5">
         <v>0.577916979789734</v>
@@ -1981,7 +2461,7 @@
         <v>0.14483301210403399</v>
       </c>
       <c r="G58" s="5">
-        <v>0.10099999475479099</v>
+        <v>0.12350000309944198</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1995,7 +2475,7 @@
         <v>9.07</v>
       </c>
       <c r="D59" s="4">
-        <v>8.8666667938232404</v>
+        <v>1.4666670560836801</v>
       </c>
       <c r="E59" s="5">
         <v>0.80958300828933705</v>
@@ -2004,7 +2484,7 @@
         <v>0.14516697692871106</v>
       </c>
       <c r="G59" s="5">
-        <v>0.15683297681808506</v>
+        <v>0.11666698622703603</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2018,7 +2498,7 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="D60" s="4">
-        <v>8.8666667938232404</v>
+        <v>1.1058330535888701</v>
       </c>
       <c r="E60" s="5">
         <v>0.86545000000000005</v>
@@ -2027,7 +2507,7 @@
         <v>0.19716702270507802</v>
       </c>
       <c r="G60" s="5">
-        <v>0.16616700458526601</v>
+        <v>0.11900000143051098</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2041,7 +2521,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="D61" s="4">
-        <v>8.9291667938232404</v>
+        <v>1.25041699409485</v>
       </c>
       <c r="E61" s="5">
         <v>0.12624999880790699</v>
@@ -2050,7 +2530,7 @@
         <v>0.18733297157287598</v>
       </c>
       <c r="G61" s="5">
-        <v>0.17066697645187401</v>
+        <v>0.11249999570846603</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2064,7 +2544,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="D62" s="4">
-        <v>9.0874996185302699</v>
+        <v>1.2787499427795399</v>
       </c>
       <c r="E62" s="5">
         <v>0.151250004768372</v>
@@ -2073,7 +2553,7 @@
         <v>0.17816702890396097</v>
       </c>
       <c r="G62" s="5">
-        <v>0.16466699409484897</v>
+        <v>0.11433298754692101</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2087,7 +2567,7 @@
         <v>6.75</v>
       </c>
       <c r="D63" s="4">
-        <v>9.1208333969116193</v>
+        <v>1.4666670560836801</v>
       </c>
       <c r="E63" s="5">
         <v>0.16083300113678001</v>
@@ -2096,7 +2576,7 @@
         <v>0.16033302116393999</v>
       </c>
       <c r="G63" s="5">
-        <v>0.16483299303054799</v>
+        <v>0.12699998784065203</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2110,7 +2590,7 @@
         <v>5.65</v>
       </c>
       <c r="D64" s="4">
-        <v>8.7124996185302699</v>
+        <v>0.94291698932647705</v>
       </c>
       <c r="E64" s="5">
         <v>0.173333004117012</v>
@@ -2119,7 +2599,7 @@
         <v>0.16466699409484897</v>
       </c>
       <c r="G64" s="5">
-        <v>0.32133297491073598</v>
+        <v>0.10183299946785002</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2142,7 +2622,7 @@
         <v>0.16349999475479104</v>
       </c>
       <c r="G65" s="5">
-        <v>0.33100001382827804</v>
+        <v>0.12583298254013095</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2165,7 +2645,7 @@
         <v>0.16533301639556897</v>
       </c>
       <c r="G66" s="5">
-        <v>0.31866697835922198</v>
+        <v>9.9500014066696008E-2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2188,7 +2668,7 @@
         <v>0.16250000762939498</v>
       </c>
       <c r="G67" s="5">
-        <v>0.30516700315475498</v>
+        <v>9.5999999523163015E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2211,7 +2691,7 @@
         <v>0.14600001144409203</v>
       </c>
       <c r="G68" s="5">
-        <v>0.31883297729492199</v>
+        <v>9.1499997854233017E-2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2234,7 +2714,7 @@
         <v>0.146499975204468</v>
       </c>
       <c r="G69" s="5">
-        <v>0.304666979789734</v>
+        <v>9.1499997854233017E-2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2257,7 +2737,7 @@
         <v>0.14483301210403399</v>
       </c>
       <c r="G70" s="5">
-        <v>0.29266701507568404</v>
+        <v>9.1499997854233017E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2280,7 +2760,7 @@
         <v>0.14516697692871106</v>
       </c>
       <c r="G71" s="5">
-        <v>0.29283301401138295</v>
+        <v>9.1499997854233017E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2303,7 +2783,7 @@
         <v>0.19716702270507802</v>
       </c>
       <c r="G72" s="5">
-        <v>0.27649997043609598</v>
+        <v>7.0667000293732005E-2</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2326,7 +2806,7 @@
         <v>0.18733297157287598</v>
       </c>
       <c r="G73" s="5">
-        <v>0.25233302879333497</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2349,7 +2829,7 @@
         <v>0.17816702890396097</v>
       </c>
       <c r="G74" s="5">
-        <v>0.19716702270507802</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2372,7 +2852,7 @@
         <v>0.16033302116393999</v>
       </c>
       <c r="G75" s="5">
-        <v>0.18733297157287598</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2395,7 +2875,7 @@
         <v>0.16466699409484897</v>
       </c>
       <c r="G76" s="5">
-        <v>0.17816702890396097</v>
+        <v>9.6667023181915002E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2418,7 +2898,7 @@
         <v>0.16349999475479104</v>
       </c>
       <c r="G77" s="5">
-        <v>0.16033302116393999</v>
+        <v>9.1667027950287E-2</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2441,7 +2921,7 @@
         <v>0.16533301639556897</v>
       </c>
       <c r="G78" s="5">
-        <v>0.16466699409484897</v>
+        <v>9.9500014066696008E-2</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -2465,7 +2945,7 @@
         <v>0.16250000762939498</v>
       </c>
       <c r="G79" s="5">
-        <v>0.16349999475479104</v>
+        <v>9.5999999523163015E-2</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -2489,7 +2969,7 @@
         <v>0.14600001144409203</v>
       </c>
       <c r="G80" s="5">
-        <v>0.16533301639556897</v>
+        <v>9.1499997854233017E-2</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -2513,7 +2993,7 @@
         <v>0.146499975204468</v>
       </c>
       <c r="G81" s="5">
-        <v>0.16250000762939498</v>
+        <v>9.1499997854233017E-2</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -2537,7 +3017,7 @@
         <v>0.14483301210403399</v>
       </c>
       <c r="G82" s="5">
-        <v>0.14600001144409203</v>
+        <v>9.1499997854233017E-2</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -2561,7 +3041,7 @@
         <v>0.14516697692871106</v>
       </c>
       <c r="G83" s="5">
-        <v>0.146499975204468</v>
+        <v>9.1499997854233017E-2</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -2585,7 +3065,7 @@
         <v>0.17050002384185803</v>
       </c>
       <c r="G84" s="5">
-        <v>0.14483301210403399</v>
+        <v>7.0667000293732005E-2</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -2609,7 +3089,7 @@
         <v>0.16349999475479104</v>
       </c>
       <c r="G85" s="5">
-        <v>0.14516697692871106</v>
+        <v>0.06</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -2633,7 +3113,7 @@
         <v>0.17183302211761498</v>
       </c>
       <c r="G86" s="5">
-        <v>0.17050002384185803</v>
+        <v>9.9500014066696008E-2</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -2657,7 +3137,7 @@
         <v>0.16349999475479104</v>
       </c>
       <c r="G87" s="5">
-        <v>0.14000000000000001</v>
+        <v>9.5999999523163015E-2</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2680,7 +3160,7 @@
         <v>0.17183302211761498</v>
       </c>
       <c r="G88" s="5">
-        <v>0.14000000000000001</v>
+        <v>9.1499997854233017E-2</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2703,7 +3183,7 @@
         <v>0.16866700220108</v>
       </c>
       <c r="G89" s="5">
-        <v>0.14000000000000001</v>
+        <v>9.1499997854233017E-2</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2726,7 +3206,7 @@
         <v>0.17333297300338701</v>
       </c>
       <c r="G90" s="5">
-        <v>0.14000000000000001</v>
+        <v>9.1499997854233017E-2</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -2749,7 +3229,7 @@
         <v>0.173166974067688</v>
       </c>
       <c r="G91" s="5">
-        <v>0.14000000000000001</v>
+        <v>9.1499997854233017E-2</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -2772,7 +3252,7 @@
         <v>0.173166974067688</v>
       </c>
       <c r="G92" s="5">
-        <v>0.14000000000000001</v>
+        <v>7.0667000293732005E-2</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -2795,7 +3275,7 @@
         <v>0.17366699743270897</v>
       </c>
       <c r="G93" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -2818,7 +3298,7 @@
         <v>0.16949997711181597</v>
       </c>
       <c r="G94" s="5">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -2841,7 +3321,7 @@
         <v>0.16866700220108</v>
       </c>
       <c r="G95" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -2864,7 +3344,7 @@
         <v>0.171332998752594</v>
       </c>
       <c r="G96" s="5">
-        <v>0.14000000000000001</v>
+        <v>9.6667023181915002E-2</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -2887,7 +3367,7 @@
         <v>0.16666702795028698</v>
       </c>
       <c r="G97" s="5">
-        <v>0.14000000000000001</v>
+        <v>9.1667027950287E-2</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -2910,7 +3390,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G98" s="5">
-        <v>0.16800002622604404</v>
+        <v>0.11</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -3030,7 +3510,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G103" s="5">
-        <v>0.16199998426437401</v>
+        <v>0.12</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -8293,7 +8773,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="C331" s="4">
-        <v>2.09</v>
+        <v>1.52</v>
       </c>
       <c r="D331" s="4">
         <v>0.95166701078414895</v>
@@ -8316,7 +8796,7 @@
         <v>13.846666336059601</v>
       </c>
       <c r="C332" s="4">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="D332" s="4">
         <v>1.2200000286102299</v>
@@ -8362,7 +8842,7 @@
         <v>13.796667098999</v>
       </c>
       <c r="C334" s="4">
-        <v>0.53</v>
+        <v>1.53</v>
       </c>
       <c r="D334" s="4">
         <v>1.2033330202102701</v>
@@ -8385,10 +8865,10 @@
         <v>13.960000038146999</v>
       </c>
       <c r="C335" s="4">
-        <v>0.79</v>
+        <v>1.79</v>
       </c>
       <c r="D335" s="4">
-        <v>0.44999998807907099</v>
+        <v>1.06</v>
       </c>
       <c r="E335" s="5">
         <v>1.1583329439163199</v>
@@ -8423,7 +8903,7 @@
         <v>0.59166699647903398</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>168</v>
       </c>
@@ -8434,10 +8914,10 @@
         <v>1.22</v>
       </c>
       <c r="D337" s="4">
-        <v>1.10166704654694</v>
+        <v>1.22</v>
       </c>
       <c r="E337" s="5">
-        <v>1.2833329439163199</v>
+        <v>1.21</v>
       </c>
       <c r="F337" s="5">
         <v>0.83999997377395597</v>
@@ -8446,7 +8926,7 @@
         <v>0.58833301067352295</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>168.5</v>
       </c>
@@ -8460,7 +8940,7 @@
         <v>1.10333299636841</v>
       </c>
       <c r="E338" s="5">
-        <v>1.35833299160004</v>
+        <v>1.06</v>
       </c>
       <c r="F338" s="5">
         <v>0.81499999761581399</v>
@@ -8469,7 +8949,7 @@
         <v>0.58999997377395597</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>169</v>
       </c>
@@ -8483,7 +8963,7 @@
         <v>1.10166704654694</v>
       </c>
       <c r="E339" s="5">
-        <v>1.4099999666214</v>
+        <v>1.0099999666213999</v>
       </c>
       <c r="F339" s="5">
         <v>0.79000002145767201</v>
@@ -8491,8 +8971,9 @@
       <c r="G339" s="5">
         <v>0.58450001478195202</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H339" s="8"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>169.5</v>
       </c>
@@ -8506,7 +8987,7 @@
         <v>1.10333299636841</v>
       </c>
       <c r="E340" s="5">
-        <v>1.4583330154418901</v>
+        <v>1.0583330154418902</v>
       </c>
       <c r="F340" s="5">
         <v>0.77666699886321999</v>
@@ -8514,8 +8995,9 @@
       <c r="G340" s="5">
         <v>0.480666995048523</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H340" s="8"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>170</v>
       </c>
@@ -8529,7 +9011,7 @@
         <v>1.2083330154418901</v>
       </c>
       <c r="E341" s="5">
-        <v>1.46000003814697</v>
+        <v>1.0600000381469701</v>
       </c>
       <c r="F341" s="5">
         <v>0.75166702270507801</v>
@@ -8537,8 +9019,9 @@
       <c r="G341" s="5">
         <v>0.489666998386383</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H341" s="8"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>170.5</v>
       </c>
@@ -8552,7 +9035,7 @@
         <v>1.20500004291534</v>
       </c>
       <c r="E342" s="5">
-        <v>1.4850000143051101</v>
+        <v>1.0850000143051099</v>
       </c>
       <c r="F342" s="5">
         <v>0.75166702270507801</v>
@@ -8560,8 +9043,9 @@
       <c r="G342" s="5">
         <v>0.58183300495147705</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H342" s="8"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>171</v>
       </c>
@@ -8575,7 +9059,7 @@
         <v>1.15166699886322</v>
       </c>
       <c r="E343" s="5">
-        <v>1.5599999427795399</v>
+        <v>1.1599999427795398</v>
       </c>
       <c r="F343" s="5">
         <v>0.74000000953674305</v>
@@ -8583,8 +9067,9 @@
       <c r="G343" s="5">
         <v>0.58300000429153398</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H343" s="8"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>171.5</v>
       </c>
@@ -8598,7 +9083,7 @@
         <v>1.2016669511795</v>
       </c>
       <c r="E344" s="5">
-        <v>1.57166695594788</v>
+        <v>1.1716669559478801</v>
       </c>
       <c r="F344" s="5">
         <v>0.72666698694229104</v>
@@ -8606,8 +9091,9 @@
       <c r="G344" s="5">
         <v>0.587333023548126</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H344" s="8"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>172</v>
       </c>
@@ -8621,7 +9107,7 @@
         <v>1.15166699886322</v>
       </c>
       <c r="E345" s="5">
-        <v>1.57166695594788</v>
+        <v>1.1716669559478801</v>
       </c>
       <c r="F345" s="5">
         <v>0.71333301067352295</v>
@@ -8629,8 +9115,9 @@
       <c r="G345" s="5">
         <v>0.58616697788238503</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H345" s="8"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>172.5</v>
       </c>
@@ -8644,7 +9131,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="E346" s="5">
-        <v>1.5966670513153101</v>
+        <v>1.1966670513153099</v>
       </c>
       <c r="F346" s="5">
         <v>0.70166701078414895</v>
@@ -8652,8 +9139,9 @@
       <c r="G346" s="5">
         <v>0.58533298969268799</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H346" s="8"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>173</v>
       </c>
@@ -8667,7 +9155,7 @@
         <v>1.1533329486846899</v>
       </c>
       <c r="E347" s="5">
-        <v>1.5966670513153101</v>
+        <v>1.1966670513153099</v>
       </c>
       <c r="F347" s="5">
         <v>0.68833297491073597</v>
@@ -8675,8 +9163,9 @@
       <c r="G347" s="5">
         <v>0.58616697788238503</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H347" s="8"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>173.5</v>
       </c>
@@ -8690,7 +9179,7 @@
         <v>1.2033330202102701</v>
       </c>
       <c r="E348" s="5">
-        <v>1.5733330249786399</v>
+        <v>1.17333302497864</v>
       </c>
       <c r="F348" s="5">
         <v>0.68833297491073597</v>
@@ -8698,8 +9187,9 @@
       <c r="G348" s="5">
         <v>0.58600002527236905</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H348" s="8"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>174</v>
       </c>
@@ -8713,7 +9203,7 @@
         <v>1.1950000524520901</v>
       </c>
       <c r="E349" s="5">
-        <v>1.5483330488205</v>
+        <v>1.1483330488205001</v>
       </c>
       <c r="F349" s="5">
         <v>0.68833297491073597</v>
@@ -8721,8 +9211,9 @@
       <c r="G349" s="5">
         <v>0.58300000429153398</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H349" s="8"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>174.5</v>
       </c>
@@ -8736,7 +9227,7 @@
         <v>1.20500004291534</v>
       </c>
       <c r="E350" s="5">
-        <v>1.57166695594788</v>
+        <v>1.1716669559478801</v>
       </c>
       <c r="F350" s="5">
         <v>0.67666697502136197</v>
@@ -8744,8 +9235,9 @@
       <c r="G350" s="5">
         <v>0.50333297252654996</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H350" s="8"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>175</v>
       </c>
@@ -8759,7 +9251,7 @@
         <v>1.1533329486846899</v>
       </c>
       <c r="E351" s="5">
-        <v>1.5599999427795399</v>
+        <v>1.1599999427795398</v>
       </c>
       <c r="F351" s="5">
         <v>0.67500001192092896</v>
@@ -8767,8 +9259,9 @@
       <c r="G351" s="5">
         <v>0.50950002670288097</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H351" s="8"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>175.5</v>
       </c>
@@ -8782,7 +9275,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="E352" s="5">
-        <v>1.5349999666214</v>
+        <v>1.1349999666213999</v>
       </c>
       <c r="F352" s="5">
         <v>0.68999999761581399</v>
@@ -8790,8 +9283,9 @@
       <c r="G352" s="5">
         <v>0.51700001955032304</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H352" s="8"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>176</v>
       </c>
@@ -8805,7 +9299,7 @@
         <v>1.2033330202102701</v>
       </c>
       <c r="E353" s="5">
-        <v>1.52166700363159</v>
+        <v>1.1216670036315901</v>
       </c>
       <c r="F353" s="5">
         <v>0.68833297491073597</v>
@@ -8813,8 +9307,9 @@
       <c r="G353" s="5">
         <v>0.52366697788238503</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H353" s="8"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>176.5</v>
       </c>
@@ -8828,7 +9323,7 @@
         <v>1.2033330202102701</v>
       </c>
       <c r="E354" s="5">
-        <v>1.52333295345306</v>
+        <v>1.1233329534530601</v>
       </c>
       <c r="F354" s="5">
         <v>0.68833297491073597</v>
@@ -8836,8 +9331,9 @@
       <c r="G354" s="5">
         <v>0.53100001811981201</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H354" s="8"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>177</v>
       </c>
@@ -8851,7 +9347,7 @@
         <v>1.2066669464111299</v>
       </c>
       <c r="E355" s="5">
-        <v>1.4966670274734499</v>
+        <v>1.0966670274734498</v>
       </c>
       <c r="F355" s="5">
         <v>0.68999999761581399</v>
@@ -8859,8 +9355,9 @@
       <c r="G355" s="5">
         <v>0.529332995414734</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H355" s="8"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>177.5</v>
       </c>
@@ -8874,7 +9371,7 @@
         <v>1.1533329486846899</v>
       </c>
       <c r="E356" s="5">
-        <v>1.4966670274734499</v>
+        <v>1.0966670274734498</v>
       </c>
       <c r="F356" s="5">
         <v>0.70166701078414895</v>
@@ -8882,8 +9379,9 @@
       <c r="G356" s="5">
         <v>0.53916698694229104</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H356" s="8"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>178</v>
       </c>
@@ -8897,7 +9395,7 @@
         <v>1.2033330202102701</v>
       </c>
       <c r="E357" s="5">
-        <v>1.4716670513153101</v>
+        <v>1.0716670513153099</v>
       </c>
       <c r="F357" s="5">
         <v>0.71333301067352295</v>
@@ -8905,8 +9403,9 @@
       <c r="G357" s="5">
         <v>0.54166698455810502</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H357" s="8"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>178.5</v>
       </c>
@@ -8920,7 +9419,7 @@
         <v>1.2033330202102701</v>
       </c>
       <c r="E358" s="5">
-        <v>1.4716670513153101</v>
+        <v>1.0716670513153099</v>
       </c>
       <c r="F358" s="5">
         <v>0.71333301067352295</v>
@@ -8928,8 +9427,9 @@
       <c r="G358" s="5">
         <v>0.546666979789734</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H358" s="8"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>179</v>
       </c>
@@ -8943,7 +9443,7 @@
         <v>1.1266670227050799</v>
       </c>
       <c r="E359" s="5">
-        <v>1.46000003814697</v>
+        <v>1.0600000381469701</v>
       </c>
       <c r="F359" s="5">
         <v>0.72666698694229104</v>
@@ -8951,8 +9451,9 @@
       <c r="G359" s="5">
         <v>0.54883301258087203</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H359" s="8"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>179.5</v>
       </c>
@@ -8966,7 +9467,7 @@
         <v>1.1283329725265501</v>
       </c>
       <c r="E360" s="5">
-        <v>1.44666695594788</v>
+        <v>1.0466669559478801</v>
       </c>
       <c r="F360" s="5">
         <v>0.74000000953674305</v>
@@ -8974,8 +9475,9 @@
       <c r="G360" s="5">
         <v>0.55433297157287598</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H360" s="8"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>180</v>
       </c>
@@ -8989,7 +9491,7 @@
         <v>1.1266670227050799</v>
       </c>
       <c r="E361" s="5">
-        <v>1.43333303928375</v>
+        <v>1.0333330392837499</v>
       </c>
       <c r="F361" s="5">
         <v>0.75166702270507801</v>
@@ -8997,8 +9499,9 @@
       <c r="G361" s="5">
         <v>0.55016702413559004</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H361" s="8"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>180.5</v>
       </c>
@@ -9012,7 +9515,7 @@
         <v>1.1266670227050799</v>
       </c>
       <c r="E362" s="5">
-        <v>1.4216669797897299</v>
+        <v>1.02166697978973</v>
       </c>
       <c r="F362" s="5">
         <v>0.76499998569488503</v>
@@ -9020,8 +9523,9 @@
       <c r="G362" s="5">
         <v>0.55683302879333496</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H362" s="8"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>181</v>
       </c>
@@ -9035,7 +9539,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="E363" s="5">
-        <v>1.4216669797897299</v>
+        <v>1.02166697978973</v>
       </c>
       <c r="F363" s="5">
         <v>0.77666699886321999</v>
@@ -9043,8 +9547,9 @@
       <c r="G363" s="5">
         <v>0.56099998950958296</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H363" s="8"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>181.5</v>
       </c>
@@ -9058,7 +9563,7 @@
         <v>1.2083330154418901</v>
       </c>
       <c r="E364" s="5">
-        <v>1.4216669797897299</v>
+        <v>1.02166697978973</v>
       </c>
       <c r="F364" s="5">
         <v>0.79000002145767201</v>
@@ -9066,8 +9571,9 @@
       <c r="G364" s="5">
         <v>0.582499980926514</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H364" s="8"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>182</v>
       </c>
@@ -9081,7 +9587,7 @@
         <v>1.2066669464111299</v>
       </c>
       <c r="E365" s="5">
-        <v>1.39666700363159</v>
+        <v>0.99666700363159</v>
       </c>
       <c r="F365" s="5">
         <v>0.79000002145767201</v>
@@ -9089,8 +9595,9 @@
       <c r="G365" s="5">
         <v>0.58666700124740601</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H365" s="8"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>182.5</v>
       </c>
@@ -9104,7 +9611,7 @@
         <v>1.2016669511795</v>
       </c>
       <c r="E366" s="5">
-        <v>1.3600000143051101</v>
+        <v>0.96000001430511006</v>
       </c>
       <c r="F366" s="5">
         <v>0.82666701078414895</v>
@@ -9112,8 +9619,9 @@
       <c r="G366" s="5">
         <v>0.58050000667571999</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H366" s="8"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>183</v>
       </c>
@@ -9127,7 +9635,7 @@
         <v>1.1283329725265501</v>
       </c>
       <c r="E367" s="5">
-        <v>1.39666700363159</v>
+        <v>0.99666700363159</v>
       </c>
       <c r="F367" s="5">
         <v>0.80166697502136197</v>
@@ -9135,8 +9643,9 @@
       <c r="G367" s="5">
         <v>0.578333020210266</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H367" s="8"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>183.5</v>
       </c>
@@ -9150,7 +9659,7 @@
         <v>1.2016669511795</v>
       </c>
       <c r="E368" s="5">
-        <v>1.39666700363159</v>
+        <v>0.99666700363159</v>
       </c>
       <c r="F368" s="5">
         <v>0.81499999761581399</v>
@@ -9158,8 +9667,9 @@
       <c r="G368" s="5">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H368" s="8"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>184</v>
       </c>
@@ -9173,7 +9683,7 @@
         <v>1.1266670227050799</v>
       </c>
       <c r="E369" s="5">
-        <v>1.38333296775818</v>
+        <v>0.98333296775818002</v>
       </c>
       <c r="F369" s="5">
         <v>0.82666701078414895</v>
@@ -9181,8 +9691,9 @@
       <c r="G369" s="5">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H369" s="8"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>184.5</v>
       </c>
@@ -9196,7 +9707,7 @@
         <v>1.1983330249786399</v>
       </c>
       <c r="E370" s="5">
-        <v>1.3716670274734499</v>
+        <v>0.97166702747344991</v>
       </c>
       <c r="F370" s="5">
         <v>0.82666701078414895</v>
@@ -9204,8 +9715,9 @@
       <c r="G370" s="5">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H370" s="8"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>185</v>
       </c>
@@ -9219,7 +9731,7 @@
         <v>1.2016669511795</v>
       </c>
       <c r="E371" s="5">
-        <v>1.35833299160004</v>
+        <v>0.95833299160003993</v>
       </c>
       <c r="F371" s="5">
         <v>0.83999997377395597</v>
@@ -9227,8 +9739,9 @@
       <c r="G371" s="5">
         <v>0.63483297824859597</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H371" s="8"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>185.5</v>
       </c>
@@ -9242,7 +9755,7 @@
         <v>1.18833303451538</v>
       </c>
       <c r="E372" s="5">
-        <v>1.3466670513153101</v>
+        <v>0.94666705131531004</v>
       </c>
       <c r="F372" s="5">
         <v>0.83833301067352295</v>
@@ -9250,8 +9763,9 @@
       <c r="G372" s="5">
         <v>0.63716697692871105</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H372" s="8"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>186</v>
       </c>
@@ -9265,7 +9779,7 @@
         <v>1.1266670227050799</v>
       </c>
       <c r="E373" s="5">
-        <v>1.3466670513153101</v>
+        <v>0.94666705131531004</v>
       </c>
       <c r="F373" s="5">
         <v>0.83999997377395597</v>
@@ -9273,8 +9787,9 @@
       <c r="G373" s="5">
         <v>0.64066702127456698</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H373" s="8"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>186.5</v>
       </c>
@@ -9288,7 +9803,7 @@
         <v>1.1983330249786399</v>
       </c>
       <c r="E374" s="5">
-        <v>1.3099999427795399</v>
+        <v>0.90999994277953988</v>
       </c>
       <c r="F374" s="5">
         <v>0.85166698694229104</v>
@@ -9296,8 +9811,9 @@
       <c r="G374" s="5">
         <v>0.66633301973342896</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H374" s="8"/>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>187</v>
       </c>
@@ -9311,7 +9827,7 @@
         <v>1.10333299636841</v>
       </c>
       <c r="E375" s="5">
-        <v>1.3333330154418901</v>
+        <v>0.93333301544189007</v>
       </c>
       <c r="F375" s="5">
         <v>0.83999997377395597</v>
@@ -9319,8 +9835,9 @@
       <c r="G375" s="5">
         <v>0.67549997568130504</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H375" s="8"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>187.5</v>
       </c>
@@ -9334,7 +9851,7 @@
         <v>1.2033330202102701</v>
       </c>
       <c r="E376" s="5">
-        <v>1.3333330154418901</v>
+        <v>0.93333301544189007</v>
       </c>
       <c r="F376" s="5">
         <v>0.85166698694229104</v>
@@ -9342,8 +9859,9 @@
       <c r="G376" s="5">
         <v>0.62316697835922197</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H376" s="8"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>188</v>
       </c>
@@ -9357,7 +9875,7 @@
         <v>1.1266670227050799</v>
       </c>
       <c r="E377" s="5">
-        <v>1.32166695594788</v>
+        <v>0.92166695594787995</v>
       </c>
       <c r="F377" s="5">
         <v>0.85166698694229104</v>
@@ -9365,8 +9883,9 @@
       <c r="G377" s="5">
         <v>0.61949998140335105</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H377" s="8"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>188.5</v>
       </c>
@@ -9380,7 +9899,7 @@
         <v>1.1283329725265501</v>
       </c>
       <c r="E378" s="5">
-        <v>1.32166695594788</v>
+        <v>0.92166695594787995</v>
       </c>
       <c r="F378" s="5">
         <v>0.85166698694229104</v>
@@ -9388,8 +9907,9 @@
       <c r="G378" s="5">
         <v>0.62033301591873202</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H378" s="8"/>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>189</v>
       </c>
@@ -9403,7 +9923,7 @@
         <v>1.19166696071625</v>
       </c>
       <c r="E379" s="5">
-        <v>1.18333303928375</v>
+        <v>1.08</v>
       </c>
       <c r="F379" s="5">
         <v>0.82666701078414895</v>
@@ -9412,7 +9932,7 @@
         <v>0.62066698074340798</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>189.5</v>
       </c>
@@ -9423,7 +9943,7 @@
         <v>1.22</v>
       </c>
       <c r="D380" s="4">
-        <v>0.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E380" s="5">
         <v>1.05833303928375</v>
@@ -9435,7 +9955,7 @@
         <v>0.57983297109603904</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>190</v>
       </c>
@@ -9458,7 +9978,7 @@
         <v>0.58116698265075695</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>190.5</v>
       </c>
@@ -9469,7 +9989,7 @@
         <v>1.2</v>
       </c>
       <c r="D382" s="4">
-        <v>0.91500002145767201</v>
+        <v>1.19</v>
       </c>
       <c r="E382" s="5">
         <v>1.12000000476837</v>
@@ -9481,7 +10001,7 @@
         <v>0.57983297109603904</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>191</v>
       </c>
@@ -9492,7 +10012,7 @@
         <v>1.34</v>
       </c>
       <c r="D383" s="4">
-        <v>1.0516669750213601</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E383" s="5">
         <v>1.13333296775818</v>
@@ -9504,7 +10024,7 @@
         <v>0.57533299922943104</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>191.5</v>
       </c>
@@ -9527,7 +10047,7 @@
         <v>0.57766699790954601</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>192</v>
       </c>
@@ -9550,7 +10070,7 @@
         <v>0.57800000905990601</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>192.5</v>
       </c>
@@ -9558,7 +10078,7 @@
         <v>13.949999809265099</v>
       </c>
       <c r="C386" s="4">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D386" s="4">
         <v>1.1950000524520901</v>
@@ -9573,7 +10093,7 @@
         <v>0.57649999856948897</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>193</v>
       </c>
@@ -9596,7 +10116,7 @@
         <v>0.57899999618530296</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>193.5</v>
       </c>
@@ -9604,7 +10124,7 @@
         <v>13.8699998855591</v>
       </c>
       <c r="C388" s="4">
-        <v>0.94</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D388" s="4">
         <v>1.10333299636841</v>
@@ -9619,7 +10139,7 @@
         <v>0.57516700029373202</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>194</v>
       </c>
@@ -9630,7 +10150,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="D389" s="4">
-        <v>1.1950000524520901</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E389" s="5">
         <v>1.0966670513153101</v>
@@ -9642,7 +10162,7 @@
         <v>0.58200001716613803</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>194.5</v>
       </c>
@@ -9653,7 +10173,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D390" s="4">
-        <v>0.95166701078414895</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E390" s="5">
         <v>1.10833299160004</v>
@@ -9665,7 +10185,7 @@
         <v>0.57983297109603904</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>195</v>
       </c>
@@ -9673,7 +10193,7 @@
         <v>14.039999961853001</v>
       </c>
       <c r="C391" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="D391" s="4">
         <v>1.19666695594788</v>
@@ -9688,7 +10208,7 @@
         <v>0.57533299922943104</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>195.5</v>
       </c>
@@ -9702,7 +10222,7 @@
         <v>1.0016670227050799</v>
       </c>
       <c r="E392" s="5">
-        <v>1.10833299160004</v>
+        <v>0.91125449999999997</v>
       </c>
       <c r="F392" s="5">
         <v>0.82666701078414895</v>
@@ -9711,7 +10231,7 @@
         <v>0.57766699790954601</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>196</v>
       </c>
@@ -9725,7 +10245,7 @@
         <v>0.95166701078414895</v>
       </c>
       <c r="E393" s="5">
-        <v>1.0950000286102299</v>
+        <v>0.89456539999999996</v>
       </c>
       <c r="F393" s="5">
         <v>0.82666701078414895</v>
@@ -9734,7 +10254,7 @@
         <v>0.57800000905990601</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>196.5</v>
       </c>
@@ -9742,7 +10262,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="C394" s="4">
-        <v>1.01</v>
+        <v>1.2254499999999999</v>
       </c>
       <c r="D394" s="4">
         <v>1.1983330249786399</v>
@@ -9757,7 +10277,7 @@
         <v>0.57649999856948897</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>197</v>
       </c>
@@ -9765,7 +10285,7 @@
         <v>13.976666450500501</v>
       </c>
       <c r="C395" s="4">
-        <v>0.98</v>
+        <v>1.23</v>
       </c>
       <c r="D395" s="4">
         <v>1.19666695594788</v>
@@ -9780,7 +10300,7 @@
         <v>0.57899999618530296</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>197.5</v>
       </c>
@@ -9794,7 +10314,7 @@
         <v>0.91500002145767201</v>
       </c>
       <c r="E396" s="5">
-        <v>1.0700000524520901</v>
+        <v>0.89654</v>
       </c>
       <c r="F396" s="5">
         <v>0.81499999761581399</v>
@@ -9803,7 +10323,7 @@
         <v>0.57516700029373202</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>198</v>
       </c>
@@ -9817,7 +10337,7 @@
         <v>0.91500002145767201</v>
       </c>
       <c r="E397" s="5">
-        <v>1.05833303928375</v>
+        <v>0.89654</v>
       </c>
       <c r="F397" s="5">
         <v>0.81333297491073597</v>
@@ -9826,7 +10346,7 @@
         <v>0.58200001716613803</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>198.5</v>
       </c>
@@ -9840,16 +10360,17 @@
         <v>0.91500002145767201</v>
       </c>
       <c r="E398" s="5">
-        <v>1.05833303928375</v>
+        <v>0.89654</v>
       </c>
       <c r="F398" s="5">
         <v>0.81499999761581399</v>
       </c>
       <c r="G398" s="5">
-        <v>0.65733301639556896</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.55733301639556898</v>
+      </c>
+      <c r="H398" s="8"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>199</v>
       </c>
@@ -9863,16 +10384,17 @@
         <v>0.91333299875259399</v>
       </c>
       <c r="E399" s="5">
-        <v>1.05833303928375</v>
+        <v>0.89654</v>
       </c>
       <c r="F399" s="5">
         <v>0.81499999761581399</v>
       </c>
       <c r="G399" s="5">
-        <v>0.65466701984405495</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.55466701984405498</v>
+      </c>
+      <c r="H399" s="8"/>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>199.5</v>
       </c>
@@ -9886,14 +10408,15 @@
         <v>0.91333299875259399</v>
       </c>
       <c r="E400" s="5">
-        <v>1.04499995708466</v>
+        <v>0.89654</v>
       </c>
       <c r="F400" s="5">
         <v>0.80166697502136197</v>
       </c>
       <c r="G400" s="5">
-        <v>0.66166698932647705</v>
-      </c>
+        <v>0.56166698932647707</v>
+      </c>
+      <c r="H400" s="8"/>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
@@ -9909,14 +10432,15 @@
         <v>0.91500002145767201</v>
       </c>
       <c r="E401" s="5">
-        <v>1.0333329439163199</v>
+        <v>0.89654</v>
       </c>
       <c r="F401" s="5">
         <v>0.80166697502136197</v>
       </c>
       <c r="G401" s="5">
-        <v>0.67283302545547496</v>
-      </c>
+        <v>0.57283302545547499</v>
+      </c>
+      <c r="H401" s="8"/>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
@@ -9932,14 +10456,15 @@
         <v>0.91500002145767201</v>
       </c>
       <c r="E402" s="5">
-        <v>1.0333329439163199</v>
+        <v>0.89654</v>
       </c>
       <c r="F402" s="5">
         <v>0.80166697502136197</v>
       </c>
       <c r="G402" s="5">
-        <v>0.67216700315475497</v>
-      </c>
+        <v>0.57216700315475499</v>
+      </c>
+      <c r="H402" s="8"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
@@ -9949,7 +10474,7 @@
         <v>13.8433332443237</v>
       </c>
       <c r="C403" s="4">
-        <v>0.98</v>
+        <v>1.32</v>
       </c>
       <c r="D403" s="4">
         <v>1.1983330249786399</v>
@@ -9961,8 +10486,9 @@
         <v>0.80166697502136197</v>
       </c>
       <c r="G403" s="5">
-        <v>0.67699998617172197</v>
-      </c>
+        <v>0.57699998617172199</v>
+      </c>
+      <c r="H403" s="8"/>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
@@ -9972,20 +10498,21 @@
         <v>13.829999923706101</v>
       </c>
       <c r="C404" s="4">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="D404" s="4">
+        <v>1.02545</v>
+      </c>
+      <c r="E404" s="4">
         <v>0.91500002145767201</v>
-      </c>
-      <c r="E404" s="5">
-        <v>1.0199999809265099</v>
       </c>
       <c r="F404" s="5">
         <v>0.80166697502136197</v>
       </c>
       <c r="G404" s="5">
-        <v>0.68033301830291704</v>
-      </c>
+        <v>0.58033301830291706</v>
+      </c>
+      <c r="H404" s="8"/>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
@@ -10001,14 +10528,15 @@
         <v>0.91333299875259399</v>
       </c>
       <c r="E405" s="5">
-        <v>1.0199999809265099</v>
+        <v>0.86542540000000001</v>
       </c>
       <c r="F405" s="5">
         <v>0.80166697502136197</v>
       </c>
       <c r="G405" s="5">
-        <v>0.6875</v>
-      </c>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="H405" s="8"/>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
@@ -10024,14 +10552,15 @@
         <v>0.91333299875259399</v>
       </c>
       <c r="E406" s="5">
-        <v>1.00833296775818</v>
+        <v>0.86545000000000005</v>
       </c>
       <c r="F406" s="5">
         <v>0.81333297491073597</v>
       </c>
       <c r="G406" s="5">
-        <v>0.69016700983047496</v>
-      </c>
+        <v>0.59016700983047499</v>
+      </c>
+      <c r="H406" s="8"/>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
@@ -10047,14 +10576,15 @@
         <v>0.91500002145767201</v>
       </c>
       <c r="E407" s="5">
-        <v>1.0199999809265099</v>
+        <v>0.86545000000000005</v>
       </c>
       <c r="F407" s="5">
         <v>0.80166697502136197</v>
       </c>
       <c r="G407" s="5">
-        <v>0.69499999284744296</v>
-      </c>
+        <v>0.59499999284744298</v>
+      </c>
+      <c r="H407" s="8"/>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
@@ -10070,14 +10600,15 @@
         <v>0.91333299875259399</v>
       </c>
       <c r="E408" s="5">
-        <v>1.00833296775818</v>
+        <v>0.87473999999999996</v>
       </c>
       <c r="F408" s="5">
         <v>0.80166697502136197</v>
       </c>
       <c r="G408" s="5">
-        <v>0.69700002670288097</v>
-      </c>
+        <v>0.59700002670288099</v>
+      </c>
+      <c r="H408" s="8"/>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
@@ -10090,7 +10621,7 @@
         <v>0.99</v>
       </c>
       <c r="D409" s="4">
-        <v>1.20000004768372</v>
+        <v>1</v>
       </c>
       <c r="E409" s="5">
         <v>0.99500000476837203</v>
@@ -10099,8 +10630,9 @@
         <v>0.78833299875259399</v>
       </c>
       <c r="G409" s="5">
-        <v>0.70499998331069902</v>
-      </c>
+        <v>0.60499998331069904</v>
+      </c>
+      <c r="H409" s="8"/>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
@@ -10122,9 +10654,9 @@
         <v>0.78833299875259399</v>
       </c>
       <c r="G410" s="5">
-        <v>0.707499980926514</v>
-      </c>
-      <c r="H410" s="1"/>
+        <v>0.60749998092651403</v>
+      </c>
+      <c r="H410" s="8"/>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
@@ -10146,9 +10678,9 @@
         <v>0.79000002145767201</v>
       </c>
       <c r="G411" s="5">
-        <v>0.70916700363159202</v>
-      </c>
-      <c r="H411" s="1"/>
+        <v>0.60916700363159204</v>
+      </c>
+      <c r="H411" s="8"/>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
@@ -10170,9 +10702,9 @@
         <v>0.78833299875259399</v>
       </c>
       <c r="G412" s="5">
-        <v>0.71383297443389904</v>
-      </c>
-      <c r="H412" s="1"/>
+        <v>0.61383297443389906</v>
+      </c>
+      <c r="H412" s="8"/>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
@@ -10194,9 +10726,9 @@
         <v>0.79000002145767201</v>
       </c>
       <c r="G413" s="5">
-        <v>0.72049999237060502</v>
-      </c>
-      <c r="H413" s="1"/>
+        <v>0.62049999237060505</v>
+      </c>
+      <c r="H413" s="8"/>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
@@ -10218,8 +10750,9 @@
         <v>0.78833299875259399</v>
       </c>
       <c r="G414" s="5">
-        <v>0.72500002384185802</v>
-      </c>
+        <v>0.62500002384185804</v>
+      </c>
+      <c r="H414" s="8"/>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
@@ -10241,8 +10774,9 @@
         <v>0.79000002145767201</v>
       </c>
       <c r="G415" s="5">
-        <v>0.72833299636840798</v>
-      </c>
+        <v>0.628332996368408</v>
+      </c>
+      <c r="H415" s="8"/>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
@@ -10264,10 +10798,11 @@
         <v>0.78833299875259399</v>
       </c>
       <c r="G416" s="5">
-        <v>0.73199999332428001</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.63199999332428003</v>
+      </c>
+      <c r="H416" s="8"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>208</v>
       </c>
@@ -10287,10 +10822,11 @@
         <v>0.78833299875259399</v>
       </c>
       <c r="G417" s="5">
-        <v>0.74349999427795399</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.64349999427795401</v>
+      </c>
+      <c r="H417" s="8"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>208.5</v>
       </c>
@@ -10310,10 +10846,11 @@
         <v>0.79000002145767201</v>
       </c>
       <c r="G418" s="5">
-        <v>0.74833297729492199</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.64833297729492201</v>
+      </c>
+      <c r="H418" s="8"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>209</v>
       </c>
@@ -10333,10 +10870,11 @@
         <v>0.79000002145767201</v>
       </c>
       <c r="G419" s="5">
-        <v>0.75366699695587203</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.65366699695587205</v>
+      </c>
+      <c r="H419" s="8"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>209.5</v>
       </c>
@@ -10356,10 +10894,11 @@
         <v>0.78833299875259399</v>
       </c>
       <c r="G420" s="5">
-        <v>0.75700002908706698</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.65700002908706701</v>
+      </c>
+      <c r="H420" s="8"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>210</v>
       </c>
@@ -10382,7 +10921,7 @@
         <v>0.67216700315475497</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>210.5</v>
       </c>
@@ -10405,7 +10944,7 @@
         <v>0.67699998617172197</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>211</v>
       </c>
@@ -10416,7 +10955,7 @@
         <v>1.04</v>
       </c>
       <c r="D423" s="4">
-        <v>0.91500002145767201</v>
+        <v>0.99</v>
       </c>
       <c r="E423" s="5">
         <v>0.97000002861022905</v>
@@ -10428,7 +10967,7 @@
         <v>0.68033301830291704</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>211.5</v>
       </c>
@@ -10439,10 +10978,10 @@
         <v>0.98</v>
       </c>
       <c r="D424" s="4">
-        <v>0.91500002145767201</v>
+        <v>0.99</v>
       </c>
       <c r="E424" s="5">
-        <v>0.97000002861022905</v>
+        <v>0.97</v>
       </c>
       <c r="F424" s="5">
         <v>0.78833299875259399</v>
@@ -10451,7 +10990,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>212</v>
       </c>
@@ -10462,7 +11001,7 @@
         <v>1.01</v>
       </c>
       <c r="D425" s="4">
-        <v>0.91333299875259399</v>
+        <v>0.97</v>
       </c>
       <c r="E425" s="5">
         <v>0.95833301544189498</v>
@@ -10474,7 +11013,7 @@
         <v>0.69016700983047496</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>212.5</v>
       </c>
@@ -10485,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="D426" s="4">
-        <v>0.91500002145767201</v>
+        <v>0.97</v>
       </c>
       <c r="E426" s="5">
         <v>0.95833301544189498</v>
@@ -10497,7 +11036,7 @@
         <v>0.69499999284744296</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>213</v>
       </c>
@@ -10508,7 +11047,7 @@
         <v>1.02</v>
       </c>
       <c r="D427" s="4">
-        <v>1.19666695594788</v>
+        <v>0.99</v>
       </c>
       <c r="E427" s="5">
         <v>0.95833301544189498</v>
@@ -10520,7 +11059,7 @@
         <v>0.69700002670288097</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>213.5</v>
       </c>
@@ -10531,7 +11070,7 @@
         <v>1.01</v>
       </c>
       <c r="D428" s="4">
-        <v>0.91500002145767201</v>
+        <v>0.99</v>
       </c>
       <c r="E428" s="5">
         <v>0.95833301544189498</v>
@@ -10543,7 +11082,7 @@
         <v>0.70499998331069902</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>214</v>
       </c>
@@ -10554,7 +11093,7 @@
         <v>1.01</v>
       </c>
       <c r="D429" s="4">
-        <v>1.20000004768372</v>
+        <v>0.99</v>
       </c>
       <c r="E429" s="5">
         <v>0.95666700601577803</v>
@@ -10566,7 +11105,7 @@
         <v>0.707499980926514</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>214.5</v>
       </c>
@@ -10577,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="D430" s="4">
-        <v>0.91500002145767201</v>
+        <v>0.98</v>
       </c>
       <c r="E430" s="5">
         <v>0.95666700601577803</v>
@@ -10589,7 +11128,7 @@
         <v>0.70916700363159202</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
         <v>215</v>
       </c>
@@ -10600,7 +11139,7 @@
         <v>0.99</v>
       </c>
       <c r="D431" s="4">
-        <v>1.2016669511795</v>
+        <v>0.98</v>
       </c>
       <c r="E431" s="5">
         <v>0.95833301544189498</v>
@@ -10612,7 +11151,7 @@
         <v>0.71383297443389904</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>215.5</v>
       </c>
@@ -10623,7 +11162,7 @@
         <v>1.01</v>
       </c>
       <c r="D432" s="4">
-        <v>0.91500002145767201</v>
+        <v>0.98</v>
       </c>
       <c r="E432" s="5">
         <v>0.95666700601577803</v>
@@ -10646,7 +11185,7 @@
         <v>0.99</v>
       </c>
       <c r="D433" s="4">
-        <v>0.91500002145767201</v>
+        <v>0.95</v>
       </c>
       <c r="E433" s="5">
         <v>0.94499999284744296</v>
@@ -10669,7 +11208,7 @@
         <v>0.98</v>
       </c>
       <c r="D434" s="4">
-        <v>1.20000004768372</v>
+        <v>0.95554499999999998</v>
       </c>
       <c r="E434" s="5">
         <v>0.94499999284744296</v>
@@ -10692,7 +11231,7 @@
         <v>0.99</v>
       </c>
       <c r="D435" s="4">
-        <v>1.1983330249786399</v>
+        <v>0.95</v>
       </c>
       <c r="E435" s="5">
         <v>0.94499999284744296</v>
@@ -10715,7 +11254,7 @@
         <v>1</v>
       </c>
       <c r="D436" s="4">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="E436" s="5">
         <v>0.94499999284744296</v>
@@ -10738,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="4">
-        <v>1.19666695594788</v>
+        <v>0.96</v>
       </c>
       <c r="E437" s="5">
         <v>0.94499999284744296</v>
@@ -10754,6 +11293,46 @@
   <autoFilter ref="B1:B437" xr:uid="{5943C35C-553A-4F16-BB63-69C87F46A898}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C22 C30:C1048576">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="between">
+      <formula>0.5</formula>
+      <formula>1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="between">
+      <formula>5</formula>
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G317:G1048576 G98:G315 G1:G77">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="between">
+      <formula>0.1</formula>
+      <formula>0.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="between">
+      <formula>0.05</formula>
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:N26">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="between">
+      <formula>0.5</formula>
+      <formula>1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="between">
+      <formula>5</formula>
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C29">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="between">
+      <formula>0.5</formula>
+      <formula>1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="between">
+      <formula>5</formula>
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K161:K164">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="between">
       <formula>0.5</formula>
       <formula>1.5</formula>
@@ -10763,44 +11342,38 @@
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G317:G1048576 G1:G315">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98:G1048576 G1:G77">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78:G97">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
       <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>0.05</formula>
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N26">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
-      <formula>0.5</formula>
-      <formula>1.5</formula>
+  <conditionalFormatting sqref="G78:G97">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="between">
-      <formula>5</formula>
-      <formula>13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C29">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
-      <formula>0.5</formula>
-      <formula>1.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
-      <formula>5</formula>
-      <formula>13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K161:K164">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
-      <formula>0.5</formula>
-      <formula>1.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
-      <formula>5</formula>
-      <formula>13</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
